--- a/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1370,9 +1370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="95" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="95" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1894,9 +1894,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1"/>
@@ -2383,9 +2381,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>

--- a/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
@@ -1372,7 +1372,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="95" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,13 +1909,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4">
         <v>-14</v>
       </c>
       <c r="D18" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E18" s="4">
         <v>-14</v>
@@ -1941,13 +1941,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4">
         <v>-12</v>
       </c>
       <c r="D19" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E19" s="4">
         <v>-12</v>
@@ -1973,13 +1973,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4">
         <v>-10</v>
       </c>
       <c r="D20" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E20" s="4">
         <v>-10</v>
@@ -2005,13 +2005,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4">
         <v>-8</v>
       </c>
       <c r="D21" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E21" s="4">
         <v>-8</v>
@@ -2037,13 +2037,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4">
         <v>-6</v>
       </c>
       <c r="D22" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E22" s="4">
         <v>-6</v>
@@ -2069,13 +2069,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C23" s="4">
         <v>-4</v>
       </c>
       <c r="D23" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E23" s="4">
         <v>-4</v>
@@ -2101,13 +2101,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4">
         <v>-2</v>
       </c>
       <c r="D24" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E24" s="4">
         <v>-2</v>
@@ -2133,13 +2133,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -2197,13 +2197,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -2229,13 +2229,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4">
         <v>6</v>
       </c>
       <c r="D28" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E28" s="4">
         <v>6</v>
@@ -2257,13 +2257,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C29" s="4">
         <v>8</v>
       </c>
       <c r="D29" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4">
         <v>8</v>
@@ -2289,13 +2289,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C30" s="4">
         <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E30" s="4">
         <v>10</v>
@@ -2321,13 +2321,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4">
         <v>12</v>
       </c>
       <c r="D31" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E31" s="4">
         <v>12</v>
@@ -2353,13 +2353,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="C32" s="4">
         <v>14</v>
       </c>
       <c r="D32" s="1">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E32" s="4">
         <v>14</v>

--- a/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60018B24-4015-4143-A72B-07AFA71F816A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18880" yWindow="460" windowWidth="18880" windowHeight="23540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="18880" yWindow="460" windowWidth="18880" windowHeight="23540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="2" r:id="rId1"/>
     <sheet name="Values" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -710,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X17"/>
@@ -1367,12 +1368,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="95" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18:D32"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,16 +1419,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>-35</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
+      <c r="D2" s="18">
+        <v>-44</v>
+      </c>
+      <c r="E2">
+        <v>-0.2</v>
       </c>
       <c r="F2" s="18">
         <v>0</v>
@@ -1455,11 +1456,11 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
+      <c r="D3" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>-0.2</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1482,16 +1483,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>35</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
+      <c r="D4" s="18">
+        <v>42.5</v>
+      </c>
+      <c r="E4">
+        <v>-0.4</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
@@ -1514,16 +1515,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="C5" s="4">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
-        <v>-25</v>
-      </c>
-      <c r="E5" s="4">
-        <v>11</v>
+      <c r="D5" s="18">
+        <v>-31.5</v>
+      </c>
+      <c r="E5">
+        <v>12.7</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -1546,16 +1547,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="C6" s="4">
         <v>-11</v>
       </c>
-      <c r="D6" s="1">
-        <v>-25</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-11</v>
+      <c r="D6" s="18">
+        <v>-31</v>
+      </c>
+      <c r="E6">
+        <v>-13.6</v>
       </c>
       <c r="F6" s="18">
         <v>0</v>
@@ -1583,11 +1584,11 @@
       <c r="C7" s="4">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>11</v>
+      <c r="D7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>12.9</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -1615,11 +1616,11 @@
       <c r="C8" s="4">
         <v>-11</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-11</v>
+      <c r="D8" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>-14</v>
       </c>
       <c r="F8" s="18">
         <v>0</v>
@@ -1642,16 +1643,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4">
-        <v>11</v>
+      <c r="D9" s="18">
+        <v>31.5</v>
+      </c>
+      <c r="E9">
+        <v>12.7</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -1674,16 +1675,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>-11</v>
       </c>
-      <c r="D10" s="1">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-11</v>
+      <c r="D10" s="18">
+        <v>31.5</v>
+      </c>
+      <c r="E10">
+        <v>-13.4</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
@@ -1706,16 +1707,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="C11" s="4">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
-        <v>-15</v>
-      </c>
-      <c r="E11" s="4">
-        <v>21</v>
+      <c r="D11" s="18">
+        <v>-20.5</v>
+      </c>
+      <c r="E11">
+        <v>24.2</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
@@ -1738,16 +1739,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="C12" s="4">
         <v>-21</v>
       </c>
-      <c r="D12" s="1">
-        <v>-15</v>
-      </c>
-      <c r="E12" s="4">
-        <v>-21</v>
+      <c r="D12" s="18">
+        <v>-19</v>
+      </c>
+      <c r="E12">
+        <v>-23.3</v>
       </c>
       <c r="F12" s="18">
         <v>0</v>
@@ -1775,11 +1776,11 @@
       <c r="C13" s="4">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>21</v>
+      <c r="D13" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="E13">
+        <v>24.5</v>
       </c>
       <c r="F13" s="18">
         <v>0</v>
@@ -1807,11 +1808,11 @@
       <c r="C14" s="4">
         <v>-21</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="4">
-        <v>-21</v>
+      <c r="E14">
+        <v>-25.4</v>
       </c>
       <c r="F14" s="18">
         <v>0</v>
@@ -1834,16 +1835,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
         <v>21</v>
       </c>
-      <c r="D15" s="1">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4">
-        <v>21</v>
+      <c r="D15" s="18">
+        <v>20.5</v>
+      </c>
+      <c r="E15">
+        <v>24.2</v>
       </c>
       <c r="F15" s="18">
         <v>0</v>
@@ -1866,16 +1867,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4">
         <v>-21</v>
       </c>
-      <c r="D16" s="1">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4">
-        <v>-21</v>
+      <c r="D16" s="18">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>-25.2</v>
       </c>
       <c r="F16" s="18">
         <v>0</v>

--- a/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60018B24-4015-4143-A72B-07AFA71F816A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2693C9-1254-2142-A08A-D8204E1636D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18880" yWindow="460" windowWidth="18880" windowHeight="23540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25280" yWindow="460" windowWidth="25280" windowHeight="28340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Speaker</t>
   </si>
@@ -1373,7 +1373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="95" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1439,11 +1439,11 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18">
-        <v>0.997</v>
-      </c>
-      <c r="J2" s="23">
-        <v>0.99709719303671096</v>
+      <c r="I2">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.83130000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1471,11 +1471,11 @@
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="18">
-        <v>0.997</v>
-      </c>
-      <c r="J3" s="23">
-        <v>0.99703796415057999</v>
+      <c r="I3">
+        <v>0.7853</v>
+      </c>
+      <c r="J3">
+        <v>0.7853</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,11 +1503,11 @@
       <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18">
-        <v>0.999</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0.99901369423253805</v>
+      <c r="I4">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1535,11 +1535,11 @@
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="18">
-        <v>0.997</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0.997006074102188</v>
+      <c r="I5">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="J5">
+        <v>0.82509999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1567,11 +1567,11 @@
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="18">
-        <v>0.998</v>
-      </c>
-      <c r="J6" s="23">
-        <v>0.99800342010184795</v>
+      <c r="I6">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.82210000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1599,11 +1599,11 @@
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="18">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0.99300604973267104</v>
+      <c r="I7">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="J7">
+        <v>0.80510000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1631,11 +1631,11 @@
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="18">
-        <v>0.999</v>
-      </c>
-      <c r="J8" s="23">
-        <v>0.999</v>
+      <c r="I8">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="J8">
+        <v>0.79710000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1663,11 +1663,11 @@
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="18">
-        <v>1.002</v>
-      </c>
-      <c r="J9" s="23">
-        <v>1.0020034338096699</v>
+      <c r="I9">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="J9">
+        <v>0.82720000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1695,11 +1695,11 @@
       <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="18">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="J10" s="23">
-        <v>1.0009999999999999</v>
+      <c r="I10">
+        <v>0.82</v>
+      </c>
+      <c r="J10">
+        <v>0.82</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1727,11 +1727,11 @@
       <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="18">
-        <v>1.006</v>
-      </c>
-      <c r="J11" s="23">
-        <v>1.0060061289336</v>
+      <c r="I11">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.82920000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1759,11 +1759,11 @@
       <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="J12" s="23">
-        <v>1.00500344409054</v>
+      <c r="I12">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.82269999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1791,11 +1791,11 @@
       <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="18">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0.99481687925761197</v>
+      <c r="I13">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.82269999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1823,11 +1823,11 @@
       <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="18">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0.98987193175282895</v>
+      <c r="I14">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.81559999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1855,11 +1855,11 @@
       <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="18">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="J15" s="23">
-        <v>0.98122002111432305</v>
+      <c r="I15">
+        <v>0.8306</v>
+      </c>
+      <c r="J15">
+        <v>0.8306</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1887,11 +1887,11 @@
       <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="18">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0.97582654078990705</v>
+      <c r="I16">
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.81759999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1918,8 +1918,8 @@
       <c r="D18" s="1">
         <v>90</v>
       </c>
-      <c r="E18" s="4">
-        <v>-14</v>
+      <c r="E18">
+        <v>-17.5</v>
       </c>
       <c r="F18" s="18">
         <v>1</v>
@@ -1930,11 +1930,11 @@
       <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="18">
-        <v>0.997</v>
-      </c>
-      <c r="J18" s="23">
-        <v>0.997030750776571</v>
+      <c r="I18">
+        <v>2.2202999999999999</v>
+      </c>
+      <c r="J18">
+        <v>2.2202999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1950,8 +1950,8 @@
       <c r="D19" s="1">
         <v>90</v>
       </c>
-      <c r="E19" s="4">
-        <v>-12</v>
+      <c r="E19">
+        <v>-15.4</v>
       </c>
       <c r="F19" s="18">
         <v>1</v>
@@ -1962,11 +1962,11 @@
       <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="18">
-        <v>0.998</v>
-      </c>
-      <c r="J19" s="23">
-        <v>0.99801862079084702</v>
+      <c r="I19">
+        <v>2.1966000000000001</v>
+      </c>
+      <c r="J19">
+        <v>2.1966000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1982,8 +1982,8 @@
       <c r="D20" s="1">
         <v>90</v>
       </c>
-      <c r="E20" s="4">
-        <v>-10</v>
+      <c r="E20">
+        <v>-12.9</v>
       </c>
       <c r="F20" s="18">
         <v>1</v>
@@ -1994,11 +1994,11 @@
       <c r="H20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="18">
-        <v>0.998</v>
-      </c>
-      <c r="J20" s="23">
-        <v>0.99800608019456805</v>
+      <c r="I20">
+        <v>2.1728999999999998</v>
+      </c>
+      <c r="J20">
+        <v>2.1728999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2014,8 +2014,8 @@
       <c r="D21" s="1">
         <v>90</v>
       </c>
-      <c r="E21" s="4">
-        <v>-8</v>
+      <c r="E21">
+        <v>-10.5</v>
       </c>
       <c r="F21" s="18">
         <v>1</v>
@@ -2026,11 +2026,11 @@
       <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="18">
-        <v>0.997</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0.99700037962957999</v>
+      <c r="I21">
+        <v>2.1581999999999999</v>
+      </c>
+      <c r="J21">
+        <v>2.1581999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2046,8 +2046,8 @@
       <c r="D22" s="1">
         <v>90</v>
       </c>
-      <c r="E22" s="4">
-        <v>-6</v>
+      <c r="E22">
+        <v>-8.1</v>
       </c>
       <c r="F22" s="18">
         <v>1</v>
@@ -2058,11 +2058,11 @@
       <c r="H22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="18">
-        <v>0.997</v>
-      </c>
-      <c r="J22" s="23">
-        <v>0.99700037962957999</v>
+      <c r="I22">
+        <v>2.1412</v>
+      </c>
+      <c r="J22">
+        <v>2.1412</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2078,8 +2078,8 @@
       <c r="D23" s="1">
         <v>90</v>
       </c>
-      <c r="E23" s="4">
-        <v>-4</v>
+      <c r="E23">
+        <v>-5.5</v>
       </c>
       <c r="F23" s="18">
         <v>1</v>
@@ -2090,11 +2090,11 @@
       <c r="H23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="18">
-        <v>1</v>
-      </c>
-      <c r="J23" s="23">
-        <v>1.0000003807719</v>
+      <c r="I23">
+        <v>2.1316999999999999</v>
+      </c>
+      <c r="J23">
+        <v>2.1316999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2110,8 +2110,8 @@
       <c r="D24" s="1">
         <v>90</v>
       </c>
-      <c r="E24" s="4">
-        <v>-2</v>
+      <c r="E24">
+        <v>-3</v>
       </c>
       <c r="F24" s="18">
         <v>1</v>
@@ -2122,11 +2122,11 @@
       <c r="H24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="18">
-        <v>1</v>
-      </c>
-      <c r="J24" s="23">
-        <v>1.0000003807719</v>
+      <c r="I24">
+        <v>2.1253000000000002</v>
+      </c>
+      <c r="J24">
+        <v>2.1253000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2142,8 +2142,8 @@
       <c r="D25" s="1">
         <v>90</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
+      <c r="E25">
+        <v>-0.5</v>
       </c>
       <c r="F25" s="18">
         <v>1</v>
@@ -2154,11 +2154,11 @@
       <c r="H25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="18">
-        <v>1.004</v>
-      </c>
-      <c r="J25" s="23">
-        <v>1.00400152918139</v>
+      <c r="I25">
+        <v>2.121</v>
+      </c>
+      <c r="J25">
+        <v>2.121</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
       <c r="D26" s="1">
         <v>90</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" s="18">
@@ -2186,11 +2186,11 @@
       <c r="H26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="18">
-        <v>1.004</v>
-      </c>
-      <c r="J26" s="23">
-        <v>1.00400344066358</v>
+      <c r="I26">
+        <v>2.1225999999999998</v>
+      </c>
+      <c r="J26">
+        <v>2.1225999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2206,8 +2206,8 @@
       <c r="D27" s="1">
         <v>90</v>
       </c>
-      <c r="E27" s="4">
-        <v>4</v>
+      <c r="E27">
+        <v>4.4000000000000004</v>
       </c>
       <c r="F27" s="18">
         <v>1</v>
@@ -2218,11 +2218,11 @@
       <c r="H27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="18">
-        <v>1.008</v>
-      </c>
-      <c r="J27" s="23">
-        <v>1.00800345437141</v>
+      <c r="I27">
+        <v>2.1288</v>
+      </c>
+      <c r="J27">
+        <v>2.1288</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2238,8 +2238,8 @@
       <c r="D28" s="1">
         <v>90</v>
       </c>
-      <c r="E28" s="4">
-        <v>6</v>
+      <c r="E28">
+        <v>7</v>
       </c>
       <c r="F28" s="18">
         <v>1</v>
@@ -2250,8 +2250,12 @@
       <c r="H28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I28"/>
-      <c r="J28" s="23"/>
+      <c r="I28">
+        <v>2.1412</v>
+      </c>
+      <c r="J28">
+        <v>2.1412</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -2266,8 +2270,8 @@
       <c r="D29" s="1">
         <v>90</v>
       </c>
-      <c r="E29" s="4">
-        <v>8</v>
+      <c r="E29">
+        <v>9.3000000000000007</v>
       </c>
       <c r="F29" s="18">
         <v>1</v>
@@ -2278,11 +2282,11 @@
       <c r="H29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="18">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="J29" s="23">
-        <v>0.97993117225480397</v>
+      <c r="I29">
+        <v>2.1515</v>
+      </c>
+      <c r="J29">
+        <v>2.1515</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2298,8 +2302,8 @@
       <c r="D30" s="1">
         <v>90</v>
       </c>
-      <c r="E30" s="4">
-        <v>10</v>
+      <c r="E30">
+        <v>11.9</v>
       </c>
       <c r="F30" s="18">
         <v>1</v>
@@ -2310,11 +2314,11 @@
       <c r="H30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="18">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="J30" s="23">
-        <v>0.99583407443067695</v>
+      <c r="I30">
+        <v>2.1701999999999999</v>
+      </c>
+      <c r="J30">
+        <v>2.1701999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2330,8 +2334,8 @@
       <c r="D31" s="1">
         <v>90</v>
       </c>
-      <c r="E31" s="4">
-        <v>12</v>
+      <c r="E31">
+        <v>14.2</v>
       </c>
       <c r="F31" s="18">
         <v>1</v>
@@ -2342,44 +2346,25 @@
       <c r="H31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="18">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="J31" s="23">
-        <v>0.970307179288041</v>
+      <c r="I31">
+        <v>2.1909000000000001</v>
+      </c>
+      <c r="J31">
+        <v>2.1909000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
-        <v>90</v>
-      </c>
-      <c r="C32" s="4">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1">
-        <v>90</v>
-      </c>
-      <c r="E32" s="4">
-        <v>14</v>
-      </c>
-      <c r="F32" s="18">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18">
-        <v>14</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="18">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0.98085816893250899</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="1"/>
+      <c r="E32"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>

--- a/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2693C9-1254-2142-A08A-D8204E1636D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA880D-0894-744D-A19C-4A04B6DED90B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25280" yWindow="460" windowWidth="25280" windowHeight="28340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1960" windowWidth="16800" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="2" r:id="rId1"/>
@@ -1373,7 +1373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="95" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1913,7 @@
         <v>90</v>
       </c>
       <c r="C18" s="4">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="D18" s="1">
         <v>90</v>
@@ -1945,7 +1945,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="4">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="D19" s="1">
         <v>90</v>
@@ -1977,7 +1977,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="4">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="D20" s="1">
         <v>90</v>
@@ -2009,7 +2009,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="4">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D21" s="1">
         <v>90</v>
@@ -2041,7 +2041,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="4">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D22" s="1">
         <v>90</v>
@@ -2073,7 +2073,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="4">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D23" s="1">
         <v>90</v>
@@ -2105,7 +2105,7 @@
         <v>90</v>
       </c>
       <c r="C24" s="4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D24" s="1">
         <v>90</v>
@@ -2201,7 +2201,7 @@
         <v>90</v>
       </c>
       <c r="C27" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
         <v>90</v>
@@ -2233,7 +2233,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1">
         <v>90</v>
@@ -2265,7 +2265,7 @@
         <v>90</v>
       </c>
       <c r="C29" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>90</v>
@@ -2297,7 +2297,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1">
         <v>90</v>
@@ -2329,7 +2329,7 @@
         <v>90</v>
       </c>
       <c r="C31" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1">
         <v>90</v>

--- a/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/lookup_table_16_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA880D-0894-744D-A19C-4A04B6DED90B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6864EC80-849C-A541-86DC-D685726754A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1960" windowWidth="16800" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,7 +1373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="95" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
